--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCY\Dacon\cafeteria_pycharm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94F1C9A-2A33-4142-A146-61467CED0958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED6E9B4-AD9A-403A-8FA2-4A9ACF1E0463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9730" yWindow="130" windowWidth="13500" windowHeight="12770" xr2:uid="{B7030AAC-1A94-44AE-9CC1-AF920CBE2FEA}"/>
+    <workbookView xWindow="2700" yWindow="1130" windowWidth="13500" windowHeight="12770" xr2:uid="{B7030AAC-1A94-44AE-9CC1-AF920CBE2FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,53 +25,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>dummy</t>
+    <t>batch_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>score</t>
+    <t>n_d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iter</t>
+    <t>n_steps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
+    <t>gamma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>n_independent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min_count</t>
+    <t>n_shared</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min_ngram</t>
+    <t>lr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max_ngram</t>
+    <t>lr_decay_start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temp</t>
+    <t>lr_gamma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dim</t>
+    <t>epochs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>window_size</t>
+    <t>lr_step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day</t>
+    <t>lunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda_sparse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +109,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -133,7 +153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,7 +166,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,437 +492,1014 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B997B4-CD9B-4A89-9F9C-0B6DD26A08CD}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:J13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>200</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>120</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>61.4428743</v>
+      </c>
+      <c r="N2" s="2">
+        <v>38.957129999999999</v>
+      </c>
+      <c r="O2" s="2">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>200</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>120</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="2">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>63.646730153153499</v>
+      </c>
+      <c r="N3" s="2">
+        <v>37.091178800000002</v>
+      </c>
+      <c r="O3" s="2">
+        <v>50.371924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>200</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>120</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="2">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2">
+        <v>61.957589300000002</v>
+      </c>
+      <c r="N4" s="2">
+        <v>38.838166000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>50.397877700000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>200</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>120</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>62.209993900000001</v>
+      </c>
+      <c r="N5" s="2">
+        <v>38.828000000000003</v>
+      </c>
+      <c r="O5" s="2">
+        <v>50.519041999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>200</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2">
+        <v>62.589448949999998</v>
+      </c>
+      <c r="N6" s="2">
+        <v>38.466631999999997</v>
+      </c>
+      <c r="O6" s="2">
+        <v>50.527887900000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>200</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>80</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2">
+        <v>63.998992622000003</v>
+      </c>
+      <c r="N7" s="2">
+        <v>37.245911</v>
+      </c>
+      <c r="O7" s="2">
+        <v>50.622450000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>200</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2">
+        <v>63.248510000000003</v>
+      </c>
+      <c r="N8" s="2">
+        <v>38.290100000000002</v>
+      </c>
+      <c r="O8" s="2">
+        <v>50.769322000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>200</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="H9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="2">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2">
+        <v>63.558641000000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>40.262444000000002</v>
+      </c>
+      <c r="O9" s="2">
+        <v>51.910542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>200</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2">
+        <v>66.334199999999996</v>
+      </c>
+      <c r="N10" s="2">
+        <v>38.610931669999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>52.472589999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>200</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="2">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2">
+        <v>65.975099999999998</v>
+      </c>
+      <c r="N11" s="2">
+        <v>40.186</v>
+      </c>
+      <c r="O11" s="2">
+        <v>53.080599999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>200</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10</v>
+      </c>
+      <c r="M12" s="2">
+        <v>63.931370000000001</v>
+      </c>
+      <c r="N12" s="2">
+        <v>42.419285360000003</v>
+      </c>
+      <c r="O12" s="2">
+        <v>53.175327000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>200</v>
+      </c>
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2">
+        <v>67.134100000000004</v>
+      </c>
+      <c r="N13" s="2">
+        <v>39.683300000000003</v>
+      </c>
+      <c r="O13" s="2">
+        <v>53.408752999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>200</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="2">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2">
+        <v>67.658794270000001</v>
+      </c>
+      <c r="N14" s="2">
+        <v>39.212623540000003</v>
+      </c>
+      <c r="O14" s="2">
+        <v>53.435708900000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>200</v>
+      </c>
+      <c r="B15" s="2">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2">
+        <v>68.273619999999994</v>
+      </c>
+      <c r="N15" s="2">
+        <v>38.850951899999998</v>
+      </c>
+      <c r="O15" s="2">
+        <v>53.562283999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>200</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="4">
-        <v>58.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4">
-        <v>57.07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="4">
-        <v>59.56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D16" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2">
+        <v>65.071889999999996</v>
+      </c>
+      <c r="N16" s="2">
+        <v>42.271514199999999</v>
+      </c>
+      <c r="O16" s="2">
+        <v>53.671702699999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>200</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="2">
+        <v>10</v>
+      </c>
+      <c r="M17" s="2">
+        <v>67.874030579999996</v>
+      </c>
+      <c r="N17" s="2">
+        <v>40.216122929999997</v>
+      </c>
+      <c r="O17" s="2">
+        <v>54.045076760999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="2">
+        <v>10</v>
+      </c>
+      <c r="M18" s="2">
+        <v>65.586325000000002</v>
+      </c>
+      <c r="N18" s="2">
+        <v>43.323121</v>
+      </c>
+      <c r="O18" s="2">
+        <v>54.454723110000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>200</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="2">
+        <v>10</v>
+      </c>
+      <c r="M19" s="2">
+        <v>66.736009999999993</v>
+      </c>
+      <c r="N19" s="2">
+        <v>42.513628199999999</v>
+      </c>
+      <c r="O19" s="2">
+        <v>54.624817100000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>200</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="2">
+        <v>10</v>
+      </c>
+      <c r="M20" s="2">
+        <v>70.136427800000007</v>
+      </c>
+      <c r="N20" s="2">
+        <v>39.846314197633298</v>
+      </c>
+      <c r="O20" s="2">
+        <v>54.991371000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>200</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="4">
-        <v>59.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4">
-        <v>53.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="4">
-        <v>54.82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="4">
-        <v>58.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="4">
-        <v>58.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="4">
-        <v>56.69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="4">
-        <v>54.58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4">
-        <v>53.65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>53.67</v>
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>100</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="2">
+        <v>10</v>
+      </c>
+      <c r="M21" s="2">
+        <v>63.251989999999999</v>
+      </c>
+      <c r="N21" s="2">
+        <v>49.859099999999998</v>
+      </c>
+      <c r="O21" s="2">
+        <v>56.555500000000002</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O21">
+    <sortCondition ref="O21"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
